--- a/openn/tests/data/sheets/valid_print_workbook.xlsx
+++ b/openn/tests/data/sheets/valid_print_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeryr/code/GIT/openn/openn/tests/data/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77978862-04E1-6148-8E91-1E392348E143}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED4377FB-CC09-9249-AC7F-B31658162817}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19940" yWindow="460" windowWidth="19960" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -638,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -691,7 +691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -754,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -807,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -860,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -931,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -984,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="B61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="A67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1203,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1282,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="B80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1427,7 +1427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="3839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="3842">
   <si>
     <t>1r</t>
   </si>
@@ -12944,6 +12944,15 @@
   </si>
   <si>
     <t>REMOVE THIS?</t>
+  </si>
+  <si>
+    <t>sourceDesc/biblStruct/monogr/edition</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>3rd. Ed.</t>
   </si>
 </sst>
 </file>
@@ -13632,13 +13641,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83:D85"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -14452,13 +14461,17 @@
       <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="26"/>
+      <c r="A24" s="15" t="s">
+        <v>3839</v>
+      </c>
       <c r="B24" s="24" t="s">
-        <v>3795</v>
-      </c>
-      <c r="C24" s="17"/>
+        <v>3840</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" s="16" t="s">
-        <v>3834</v>
+        <v>3841</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -14484,15 +14497,13 @@
       <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>3798</v>
-      </c>
+      <c r="A25" s="26"/>
       <c r="B25" s="24" t="s">
-        <v>3799</v>
+        <v>3795</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="16" t="s">
-        <v>3832</v>
+        <v>3834</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -14518,53 +14529,51 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="26" t="s">
-        <v>3763</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>3780</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
+      <c r="A26" s="15" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="56" t="s">
-        <v>3781</v>
+      <c r="D27" s="15" t="s">
+        <v>3780</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -14591,16 +14600,16 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>3782</v>
+      <c r="D28" s="56" t="s">
+        <v>3781</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -14627,16 +14636,16 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="56" t="s">
-        <v>3783</v>
+      <c r="D29" s="15" t="s">
+        <v>3782</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -14663,16 +14672,16 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>3821</v>
+      <c r="D30" s="56" t="s">
+        <v>3783</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -14699,16 +14708,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>232</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -14734,16 +14743,18 @@
       <c r="Z31" s="15"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>477</v>
+      <c r="A32" s="26" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="15" t="s">
+        <v>3822</v>
+      </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -14769,15 +14780,15 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -14801,115 +14812,115 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" ht="16">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
+    <row r="35" spans="1:26" ht="16">
+      <c r="A35" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="26" t="s">
-        <v>3768</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>3754</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="15">
-        <v>1493</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D37" s="33"/>
+      <c r="D37" s="15">
+        <v>1493</v>
+      </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -14935,10 +14946,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>232</v>
@@ -14969,18 +14980,16 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>3784</v>
-      </c>
-      <c r="E39" s="30"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
@@ -15005,52 +15014,52 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="s">
-        <v>3772</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>3753</v>
+        <v>3771</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>3757</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>3785</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
+        <v>3784</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="15" t="s">
-        <v>3796</v>
+      <c r="A41" s="26" t="s">
+        <v>3772</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>3797</v>
+        <v>3753</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>3823</v>
+        <v>65</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>3785</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -15076,15 +15085,17 @@
       <c r="Z41" s="15"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="26" t="s">
-        <v>3773</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="15" t="s">
-        <v>3786</v>
+      <c r="A42" s="15" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>3797</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>3823</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -15110,15 +15121,15 @@
       <c r="Z42" s="15"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="56" t="s">
-        <v>3824</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>3825</v>
+      <c r="A43" s="26" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>3758</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="15" t="s">
-        <v>3826</v>
+        <v>3786</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -15143,170 +15154,168 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
     </row>
-    <row r="44" spans="1:26" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A44" s="56" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="15" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+    </row>
+    <row r="45" spans="1:26" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="29" t="s">
         <v>638</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B45" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C45" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-    </row>
-    <row r="46" spans="1:26" s="39" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="29" t="s">
+      <c r="D45" s="29"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+    </row>
+    <row r="47" spans="1:26" s="39" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A47" s="29" t="s">
         <v>647</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B47" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C47" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="26" t="s">
+      <c r="D47" s="50"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="26" t="s">
         <v>3774</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B48" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-    </row>
-    <row r="48" spans="1:26" ht="16">
-      <c r="A48" s="26" t="s">
-        <v>3775</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>3759</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>3787</v>
-      </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
@@ -15316,11 +15325,13 @@
         <v>3775</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>3760</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>3759</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="D49" s="31" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
@@ -15345,119 +15356,119 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
     </row>
-    <row r="50" spans="1:26" s="39" customFormat="1" ht="16">
-      <c r="A50" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
+    <row r="50" spans="1:26" ht="16">
+      <c r="A50" s="26" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="31" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
     </row>
     <row r="51" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A51" s="29" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>232</v>
       </c>
       <c r="D51" s="38"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
       <c r="X51" s="29"/>
       <c r="Y51" s="29"/>
       <c r="Z51" s="29"/>
     </row>
     <row r="52" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A52" s="29" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
       <c r="X52" s="29"/>
       <c r="Y52" s="29"/>
       <c r="Z52" s="29"/>
     </row>
     <row r="53" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A53" s="29" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D53" s="41"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -15483,78 +15494,78 @@
     </row>
     <row r="54" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A54" s="29" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
       <c r="X54" s="29"/>
       <c r="Y54" s="29"/>
       <c r="Z54" s="29"/>
     </row>
     <row r="55" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A55" s="29" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
       <c r="X55" s="29"/>
       <c r="Y55" s="29"/>
       <c r="Z55" s="29"/>
     </row>
     <row r="56" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A56" s="29" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>232</v>
@@ -15585,78 +15596,78 @@
     </row>
     <row r="57" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A57" s="29" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>232</v>
       </c>
       <c r="D57" s="38"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="44"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A58" s="29" t="s">
-        <v>784</v>
+        <v>747</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>786</v>
+        <v>748</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
       <c r="X58" s="43"/>
       <c r="Y58" s="44"/>
       <c r="Z58" s="29"/>
     </row>
     <row r="59" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A59" s="29" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>232</v>
@@ -15681,51 +15692,57 @@
       <c r="U59" s="40"/>
       <c r="V59" s="40"/>
       <c r="W59" s="40"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="44"/>
       <c r="Z59" s="29"/>
     </row>
-    <row r="60" spans="1:26" ht="16">
-      <c r="A60" s="26" t="s">
+    <row r="60" spans="1:26" s="39" customFormat="1" ht="16">
+      <c r="A60" s="29" t="s">
+        <v>792</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>794</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+    </row>
+    <row r="61" spans="1:26" ht="16">
+      <c r="A61" s="26" t="s">
         <v>3776</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D61" s="15" t="s">
         <v>3833</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-    </row>
-    <row r="61" spans="1:26" ht="16">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -15749,70 +15766,64 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" s="39" customFormat="1" ht="16">
-      <c r="A62" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>816</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
+    <row r="62" spans="1:26" ht="16">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
     </row>
     <row r="63" spans="1:26" s="39" customFormat="1" ht="16">
       <c r="A63" s="29" t="s">
-        <v>676</v>
+        <v>814</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
       <c r="X63" s="29"/>
       <c r="Y63" s="29"/>
       <c r="Z63" s="29"/>
@@ -15822,75 +15833,75 @@
         <v>676</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>232</v>
       </c>
       <c r="D64" s="29"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
       <c r="X64" s="29"/>
       <c r="Y64" s="29"/>
       <c r="Z64" s="29"/>
     </row>
-    <row r="65" spans="1:26" ht="16">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
+    <row r="65" spans="1:26" s="39" customFormat="1" ht="16">
+      <c r="A65" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
     </row>
     <row r="66" spans="1:26" ht="16">
-      <c r="A66" s="51" t="s">
-        <v>3777</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>869</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>232</v>
-      </c>
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="15"/>
-      <c r="E66" s="47"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -15915,16 +15926,16 @@
     </row>
     <row r="67" spans="1:26" ht="16">
       <c r="A67" s="51" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>910</v>
+        <v>869</v>
       </c>
       <c r="C67" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -15948,10 +15959,16 @@
       <c r="Z67" s="15"/>
     </row>
     <row r="68" spans="1:26" ht="16">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="15"/>
+      <c r="A68" s="51" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>910</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="22"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -15976,18 +15993,10 @@
       <c r="Z68" s="15"/>
     </row>
     <row r="69" spans="1:26" ht="16">
-      <c r="A69" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>970</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>3835</v>
-      </c>
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -16013,16 +16022,16 @@
     </row>
     <row r="70" spans="1:26" ht="16">
       <c r="A70" s="15" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>998</v>
+        <v>970</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="56" t="s">
-        <v>3781</v>
+      <c r="D70" s="15" t="s">
+        <v>3835</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
@@ -16048,10 +16057,18 @@
       <c r="Z70" s="15"/>
     </row>
     <row r="71" spans="1:26" ht="16">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="15"/>
+      <c r="A71" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="56" t="s">
+        <v>3781</v>
+      </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -16076,18 +16093,10 @@
       <c r="Z71" s="15"/>
     </row>
     <row r="72" spans="1:26" ht="16">
-      <c r="A72" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>3791</v>
-      </c>
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -16113,16 +16122,16 @@
     </row>
     <row r="73" spans="1:26" ht="16">
       <c r="A73" s="15" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>232</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
@@ -16148,10 +16157,18 @@
       <c r="Z73" s="15"/>
     </row>
     <row r="74" spans="1:26" ht="16">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>3790</v>
+      </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -16176,18 +16193,10 @@
       <c r="Z74" s="15"/>
     </row>
     <row r="75" spans="1:26" ht="16">
-      <c r="A75" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>3793</v>
-      </c>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -16213,16 +16222,16 @@
     </row>
     <row r="76" spans="1:26" ht="16">
       <c r="A76" s="15" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>232</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
@@ -16248,10 +16257,18 @@
       <c r="Z76" s="15"/>
     </row>
     <row r="77" spans="1:26" ht="16">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="15"/>
+      <c r="A77" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>3792</v>
+      </c>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -16276,18 +16293,10 @@
       <c r="Z77" s="15"/>
     </row>
     <row r="78" spans="1:26" ht="16">
-      <c r="A78" s="15" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>3836</v>
-      </c>
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -16313,16 +16322,16 @@
     </row>
     <row r="79" spans="1:26" ht="16">
       <c r="A79" s="15" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="52" t="s">
-        <v>3837</v>
+      <c r="D79" s="15" t="s">
+        <v>3836</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -16348,10 +16357,18 @@
       <c r="Z79" s="15"/>
     </row>
     <row r="80" spans="1:26" ht="16">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="15"/>
+      <c r="A80" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="52" t="s">
+        <v>3837</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -16377,18 +16394,14 @@
     </row>
     <row r="81" spans="1:26" ht="16">
       <c r="A81" s="15"/>
-      <c r="B81" s="16" t="s">
-        <v>1056</v>
-      </c>
+      <c r="B81" s="16"/>
       <c r="C81" s="17"/>
-      <c r="D81" s="48" t="s">
-        <v>3838</v>
-      </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
@@ -16407,33 +16420,51 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A83" s="55" t="s">
-        <v>3807</v>
-      </c>
-      <c r="B83" s="53" t="s">
-        <v>3800</v>
-      </c>
-      <c r="C83" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" s="54" t="s">
-        <v>3746</v>
-      </c>
-    </row>
+    <row r="82" spans="1:26" ht="16">
+      <c r="A82" s="15"/>
+      <c r="B82" s="16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="48" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="55" t="s">
         <v>3807</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="D84" s="54" t="s">
-        <v>3805</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
@@ -16441,46 +16472,46 @@
         <v>3807</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="C85" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="D85" s="54">
+      <c r="D85" s="54" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A86" s="55" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="D86" s="54">
         <v>2018</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="54"/>
-    </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A87" s="55" t="s">
-        <v>3807</v>
-      </c>
-      <c r="B87" s="53" t="s">
-        <v>3803</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="54" t="s">
-        <v>3746</v>
-      </c>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="54"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="55" t="s">
         <v>3807</v>
       </c>
       <c r="B88" s="53" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="D88" s="54" t="s">
-        <v>3805</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
@@ -16488,16 +16519,29 @@
         <v>3807</v>
       </c>
       <c r="B89" s="53" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="C89" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="D89" s="54">
+      <c r="D89" s="54" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A90" s="55" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B90" s="53" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" s="54">
         <v>2018</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="91" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="92" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="93" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17415,12 +17459,13 @@
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TEI Publication date" prompt="The year this metadata document will be marked a published; e.g., 2018, 2019, etc. _x000a__x000a_NOT the year of the book's publication." sqref="B13" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D79" r:id="rId1" xr:uid="{CB415BE1-ABD2-774E-A53B-B1C852690B3E}"/>
+    <hyperlink ref="D80" r:id="rId1" xr:uid="{CB415BE1-ABD2-774E-A53B-B1C852690B3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
